--- a/file-examplee.xlsx
+++ b/file-examplee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XXX\Стартовый шаблон\assembly — Furino\dist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XXX\web\Готовые\Funiro-dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -62,18 +62,12 @@
     <t>Night lamp</t>
   </si>
   <si>
-    <t>./image/products/Image 5.jpg</t>
-  </si>
-  <si>
     <t>Muggo</t>
   </si>
   <si>
     <t>Small mug</t>
   </si>
   <si>
-    <t>./image/products/Image 6.jpg</t>
-  </si>
-  <si>
     <t>Rp 150.000</t>
   </si>
   <si>
@@ -83,9 +77,6 @@
     <t xml:space="preserve">Cute bed set </t>
   </si>
   <si>
-    <t>./image/products/Image 7.jpg</t>
-  </si>
-  <si>
     <t>Rp 7.000.000</t>
   </si>
   <si>
@@ -98,9 +89,6 @@
     <t>Minimalist flower pot</t>
   </si>
   <si>
-    <t>./image/products/Image 8.jpg</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
@@ -128,9 +116,6 @@
     <t>Grifoculamp</t>
   </si>
   <si>
-    <t>o</t>
-  </si>
-  <si>
     <t>labelsvaluerec</t>
   </si>
   <si>
@@ -141,6 +126,21 @@
   </si>
   <si>
     <t>idrec</t>
+  </si>
+  <si>
+    <t>./image/products/image 8.jpg</t>
+  </si>
+  <si>
+    <t>./image/products/image 7.jpg</t>
+  </si>
+  <si>
+    <t>./image/products/image 6.jpg</t>
+  </si>
+  <si>
+    <t>./image/products/image 5.jpg</t>
+  </si>
+  <si>
+    <t>Lorider</t>
   </si>
 </sst>
 </file>
@@ -471,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,19 +518,19 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -541,17 +541,17 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -559,10 +559,10 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -576,26 +576,26 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O3">
         <v>2</v>
@@ -609,34 +609,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O4">
         <v>3</v>
@@ -650,37 +650,29 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O5">
         <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/file-examplee.xlsx
+++ b/file-examplee.xlsx
@@ -137,10 +137,10 @@
     <t>./image/products/image 6.jpg</t>
   </si>
   <si>
-    <t>./image/products/image 5.jpg</t>
-  </si>
-  <si>
     <t>Lorider</t>
+  </si>
+  <si>
+    <t>./image/products/Image 5.jpg</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +548,7 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>27</v>
@@ -609,7 +609,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
